--- a/project/uploads/93/split_output/2-清单.xlsx
+++ b/project/uploads/93/split_output/2-清单.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7577A52D-C348-4851-8B40-4519D3BA9DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD9D18B8-BDD0-4619-A167-4EDC7379978A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{2B554ED6-F067-4210-88A0-ACBFD501A596}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8170" xr2:uid="{3B806DF0-CEDB-4D4E-B4AC-19D1C9982807}"/>
   </bookViews>
   <sheets>
     <sheet name="2-清单" sheetId="1" r:id="rId1"/>
@@ -3753,7 +3753,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_品目一侧围前部模块_6" xfId="1" xr:uid="{26C50A8B-E4E9-495B-A2FE-2DBBCF470E7C}"/>
+    <cellStyle name="常规_品目一侧围前部模块_6" xfId="1" xr:uid="{B9416310-8AD1-4B21-865E-44EA7CC524C1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3783,7 +3783,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8DDDBD-6EBA-4287-953D-A8DD4933F320}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F3A4119-6326-4B76-AFB1-8DA7016BE9CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3797,7 +3797,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="1060450"/>
+          <a:off x="4057650" y="1022350"/>
           <a:ext cx="1066800" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3820,7 +3820,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCCD061-C6B1-4283-8566-CE8CBA01F03D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4CA6AB-00D1-4396-90C6-E074894445A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3834,7 +3834,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4072890" y="2507615"/>
+          <a:off x="4076700" y="2543175"/>
           <a:ext cx="1028700" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3857,7 +3857,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1995B11F-D06B-409F-8AAA-8FBB7801D8EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423765C9-9DE2-48A7-8436-87CD5052E884}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3871,7 +3871,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4082415" y="3771900"/>
+          <a:off x="4086225" y="3695700"/>
           <a:ext cx="1000125" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3894,7 +3894,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED953DAE-5CE4-41DE-96F6-C340BB95A95D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEEA9B4-9CA3-4CBE-A112-8722A9A76B74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3908,7 +3908,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4082415" y="5164455"/>
+          <a:off x="4086225" y="4829175"/>
           <a:ext cx="1009650" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3931,7 +3931,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6838B8B9-1DEF-4F73-A2F1-B3CAF0F640BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449F1942-E465-4077-A551-BB6BD61D5C84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3945,7 +3945,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4120515" y="6286500"/>
+          <a:off x="4124325" y="5905500"/>
           <a:ext cx="933450" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3968,7 +3968,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE068D4-BF4E-442C-A677-EE40EF7DEFCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42204A2-01ED-450C-92E6-1A89A8200946}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3982,7 +3982,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4120515" y="7456170"/>
+          <a:off x="4124325" y="7029450"/>
           <a:ext cx="923925" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4005,7 +4005,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A265D4-6E30-4F26-B831-E5EF170E7AEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4DEE31-1AEB-401A-BA6E-5E7C46DB977F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4019,7 +4019,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="8673465"/>
+          <a:off x="4057650" y="8201025"/>
           <a:ext cx="1066800" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4042,7 +4042,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8EA5704-3BA0-46AC-B489-13F3021BEC91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67917B86-5619-423F-888E-DFC9D6AF310E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4056,7 +4056,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="9711690"/>
+          <a:off x="4057650" y="9201150"/>
           <a:ext cx="1066800" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4079,7 +4079,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E1E5F1-25CC-42CA-AEFA-9729316EC714}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D39C8FB-031C-481E-BE77-3F50ECBB0306}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4093,7 +4093,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="10751820"/>
+          <a:off x="4057650" y="10236200"/>
           <a:ext cx="1066800" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4116,7 +4116,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87869C1-886C-4EF3-A3DA-CE4399E408D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FC525D-4D09-44FB-A225-4AF5C61A73AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4130,7 +4130,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4101465" y="11944350"/>
+          <a:off x="4105275" y="11423650"/>
           <a:ext cx="962025" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4153,7 +4153,7 @@
         <xdr:cNvPr id="12" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F8C9F5-4037-4C37-833A-9D31CD5D5E18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE938AF7-5CBA-4766-8DB3-D5EE5F819D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4167,7 +4167,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4130040" y="13083540"/>
+          <a:off x="4133850" y="12522200"/>
           <a:ext cx="904875" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4190,7 +4190,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBDDDF5-83F9-490A-A41F-6D577078A21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6DEDF8-D97F-40C8-9231-71539D1D7726}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4204,7 +4204,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4101465" y="14165580"/>
+          <a:off x="4105275" y="13563600"/>
           <a:ext cx="971550" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4227,7 +4227,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00EFFF7B-65B1-4A18-90CD-982CF0F44C0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160322D4-B9F2-40C7-A81C-032DCD7C36C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4241,7 +4241,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="15517495"/>
+          <a:off x="4057650" y="14862175"/>
           <a:ext cx="1066800" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4264,7 +4264,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2D3180-6C33-4A53-8F09-CCC8B1717714}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905E59CF-CAB1-4586-B67E-8192EBC774FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4278,7 +4278,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="16957675"/>
+          <a:off x="4057650" y="16259175"/>
           <a:ext cx="1066800" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4301,7 +4301,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D992F794-CB0D-4ACB-A4B5-961EADA55491}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515DB17D-7C87-4BCE-AB12-C520FADF39E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4315,7 +4315,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="17950815"/>
+          <a:off x="4057650" y="17224375"/>
           <a:ext cx="1066800" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4338,7 +4338,7 @@
         <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4A4FC1-65B7-4CDA-AFFF-A7833F8D4737}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3846EC-2AA0-4F2C-9380-37E6DE4BA2E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4352,7 +4352,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="19443065"/>
+          <a:off x="4057650" y="18665825"/>
           <a:ext cx="1066800" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4375,7 +4375,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC54C7D-9533-4CA5-9163-D4914444B298}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32B6C5C-810D-4BE4-A9E2-CC67435EB1BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4389,7 +4389,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4087495" y="20605115"/>
+          <a:off x="4091305" y="19782155"/>
           <a:ext cx="1066800" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4412,7 +4412,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F344277E-4D88-4D9F-B505-432D25E9F5DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385EF64A-BFAB-4CA6-A74D-E0326A64A2A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4426,7 +4426,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="22188805"/>
+          <a:off x="4057650" y="21193125"/>
           <a:ext cx="1066800" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4449,7 +4449,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32448831-A048-4108-B2BC-AC71F208A511}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12E202D-B933-4D0C-BA7C-C010DB99E25A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4463,7 +4463,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="23465155"/>
+          <a:off x="4057650" y="22456775"/>
           <a:ext cx="1066800" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4486,7 +4486,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403F189F-10FD-4E9B-9420-1F6191780726}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BF8F6E-2973-44D4-9F64-7942C9094498}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4500,7 +4500,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4091940" y="24475440"/>
+          <a:off x="4095750" y="23469600"/>
           <a:ext cx="990600" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4523,7 +4523,7 @@
         <xdr:cNvPr id="22" name="图片 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E05C9AA-BEC5-4954-A44F-74D0372CBA15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC4038A1-CEBC-41BC-89E3-20FAE99A793A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4537,7 +4537,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="25572720"/>
+          <a:off x="4057650" y="24422100"/>
           <a:ext cx="1057275" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4560,7 +4560,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E49ECE-1412-4A82-B317-5D86C0309538}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12DC13E-C479-4653-B12D-7C6637C53C86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4574,7 +4574,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="3804285" y="26890345"/>
+          <a:off x="3808095" y="25594945"/>
           <a:ext cx="1050290" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4597,7 +4597,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFDCC712-0BBF-49E6-B8C7-9E1483383256}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B5B646-7713-4F2D-84D5-3B6BCE4212ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4611,7 +4611,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="28239085"/>
+          <a:off x="4057650" y="26882725"/>
           <a:ext cx="1066800" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4634,7 +4634,7 @@
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB12F7CB-1EBB-4ABD-9F75-F59A4A733932}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9931BFA-8F98-4BFB-B52F-51A3FE20FBEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4648,7 +4648,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="29440505"/>
+          <a:off x="4057650" y="28051125"/>
           <a:ext cx="1066800" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4671,7 +4671,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16814817-0C8E-451D-B876-455072255922}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B77139-75D2-4F0F-BF31-AFDBC0A89FF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4685,7 +4685,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="30619700"/>
+          <a:off x="4057650" y="29184600"/>
           <a:ext cx="1066800" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4708,7 +4708,7 @@
         <xdr:cNvPr id="27" name="图片 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77B3FCA-C366-4CFB-B531-AF6954614C96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F85711-2B97-458E-A890-8918DF1C6475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4722,7 +4722,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4344670" y="26897330"/>
+          <a:off x="4348480" y="25601930"/>
           <a:ext cx="1050290" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14651,7 +14651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9F3BC8-1A8B-462D-AF10-A508133D2397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C916D9-0373-4910-BABA-22FEDFAAA04A}">
   <dimension ref="A1:AW145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -14661,18 +14661,18 @@
       <selection pane="bottomRight" activeCell="X55" sqref="X55:X59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="9" style="13"/>
-    <col min="4" max="4" width="7.69921875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="13" customWidth="1"/>
     <col min="5" max="6" width="9" style="122"/>
-    <col min="7" max="7" width="17.19921875" style="122" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" style="122" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" style="13" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="122" customWidth="1"/>
+    <col min="8" max="8" width="14.58203125" style="122" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="13" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="13" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="9" style="13" hidden="1" customWidth="1"/>
     <col min="15" max="19" width="9" style="13" customWidth="1"/>
-    <col min="20" max="20" width="6.19921875" style="13" customWidth="1"/>
+    <col min="20" max="20" width="6.25" style="13" customWidth="1"/>
     <col min="21" max="22" width="9" style="13" customWidth="1"/>
     <col min="23" max="24" width="9" style="13"/>
     <col min="25" max="25" width="15" style="11" customWidth="1"/>
@@ -14935,7 +14935,7 @@
       </c>
       <c r="X5" s="37"/>
     </row>
-    <row r="6" spans="1:31" ht="24">
+    <row r="6" spans="1:31" ht="26">
       <c r="A6" s="14"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -14979,7 +14979,7 @@
       </c>
       <c r="X6" s="37"/>
     </row>
-    <row r="7" spans="1:31" ht="24">
+    <row r="7" spans="1:31" ht="26">
       <c r="A7" s="14"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -15031,7 +15031,7 @@
       </c>
       <c r="X7" s="37"/>
     </row>
-    <row r="8" spans="1:31" ht="36">
+    <row r="8" spans="1:31" ht="39">
       <c r="A8" s="14"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="X11" s="37"/>
     </row>
-    <row r="12" spans="1:31" ht="24">
+    <row r="12" spans="1:31" ht="26">
       <c r="A12" s="14"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -15259,7 +15259,7 @@
       </c>
       <c r="X12" s="37"/>
     </row>
-    <row r="13" spans="1:31" ht="24">
+    <row r="13" spans="1:31">
       <c r="A13" s="14"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="X17" s="37"/>
     </row>
-    <row r="18" spans="1:24" ht="24">
+    <row r="18" spans="1:24">
       <c r="A18" s="14"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -15521,7 +15521,7 @@
       </c>
       <c r="X18" s="37"/>
     </row>
-    <row r="19" spans="1:24" ht="24">
+    <row r="19" spans="1:24">
       <c r="A19" s="14"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="X46" s="37"/>
     </row>
-    <row r="47" spans="1:24" ht="24">
+    <row r="47" spans="1:24" ht="26">
       <c r="A47" s="14"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -17031,7 +17031,7 @@
       </c>
       <c r="X52" s="37"/>
     </row>
-    <row r="53" spans="1:24" ht="24">
+    <row r="53" spans="1:24" ht="26">
       <c r="A53" s="14"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
@@ -17211,7 +17211,7 @@
       </c>
       <c r="X56" s="16"/>
     </row>
-    <row r="57" spans="1:24" ht="28.8">
+    <row r="57" spans="1:24" ht="28">
       <c r="A57" s="14"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="X61" s="16"/>
     </row>
-    <row r="62" spans="1:24" ht="28.8">
+    <row r="62" spans="1:24" ht="28">
       <c r="A62" s="14"/>
       <c r="B62" s="52"/>
       <c r="C62" s="52"/>
@@ -17863,7 +17863,7 @@
       <c r="W72" s="77"/>
       <c r="X72" s="77"/>
     </row>
-    <row r="73" spans="1:24" ht="26.4">
+    <row r="73" spans="1:24" ht="26">
       <c r="A73" s="74"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -18067,7 +18067,7 @@
       <c r="W78" s="54"/>
       <c r="X78" s="54"/>
     </row>
-    <row r="79" spans="1:24" ht="26.4">
+    <row r="79" spans="1:24" ht="26">
       <c r="A79" s="81"/>
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
@@ -18299,7 +18299,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="26.4">
+    <row r="85" spans="1:24" ht="26">
       <c r="A85" s="96"/>
       <c r="B85" s="97"/>
       <c r="C85" s="97"/>
@@ -18749,7 +18749,7 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="36">
+    <row r="97" spans="1:24" ht="26">
       <c r="A97" s="96"/>
       <c r="B97" s="97"/>
       <c r="C97" s="97"/>
@@ -18937,7 +18937,7 @@
       <c r="W101" s="54"/>
       <c r="X101" s="54"/>
     </row>
-    <row r="102" spans="1:24" ht="24">
+    <row r="102" spans="1:24" ht="26">
       <c r="A102" s="96"/>
       <c r="B102" s="97"/>
       <c r="C102" s="97"/>
@@ -19141,7 +19141,7 @@
       <c r="W107" s="54"/>
       <c r="X107" s="54"/>
     </row>
-    <row r="108" spans="1:24" ht="24">
+    <row r="108" spans="1:24" ht="26">
       <c r="A108" s="96"/>
       <c r="B108" s="97"/>
       <c r="C108" s="97"/>
@@ -19361,7 +19361,7 @@
         <v>21.23</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="24">
+    <row r="114" spans="1:24">
       <c r="A114" s="96"/>
       <c r="B114" s="97"/>
       <c r="C114" s="97"/>
@@ -19565,7 +19565,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="24">
+    <row r="119" spans="1:24">
       <c r="A119" s="96"/>
       <c r="B119" s="97"/>
       <c r="C119" s="97"/>
@@ -20033,7 +20033,7 @@
         <v>32.22</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="26.4">
+    <row r="130" spans="1:24" ht="26">
       <c r="A130" s="81"/>
       <c r="B130" s="75"/>
       <c r="C130" s="75"/>
@@ -20075,7 +20075,7 @@
         <v>35.65</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="26.4">
+    <row r="131" spans="1:24" ht="26">
       <c r="A131" s="81"/>
       <c r="B131" s="75"/>
       <c r="C131" s="75"/>
